--- a/medicine/Enfance/Alice_et_le_Dragon_de_feu/Alice_et_le_Dragon_de_feu.xlsx
+++ b/medicine/Enfance/Alice_et_le_Dragon_de_feu/Alice_et_le_Dragon_de_feu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et le Dragon de feu (titre original : The Mystery of the Fire Dragon, littéralement : Le Mystère du dragon de feu) est le trente-huitième[1]roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams. 
+Alice et le Dragon de feu (titre original : The Mystery of the Fire Dragon, littéralement : Le Mystère du dragon de feu) est le trente-huitièmeroman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams. 
 Aux États-Unis, le roman a été publié pour la première fois en 1961 par Grosset &amp; Dunlap, New York. En France, il a paru pour la première fois en 1964 chez Hachette Jeunesse dans la collection « Idéal-Bibliothèque » sous le no 264. Il n'a plus été réédité en France depuis 1985.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1964 à 19 en langue française.
 Cécile Roy demande à sa nièce Alice et à ses amies Bess et Marion de venir la rejoindre à New York pour enquêter sur la disparition de ses sous-locataires : un vieux monsieur Chinois du nom de Tsao, et Chami, sa petite-fille, une étudiante. À la vue de Marion, M. Tsao est troublé par sa ressemblance avec sa petite-fille. Alice a alors l'idée de déguiser Marion en Chami et de la faire passer pour celle-ci. Les réactions de l'entourage de la vraie Chami ne se font pas attendre, à la grande satisfaction d'Alice qui récolte ainsi de nombreux indices. Ceux-ci vont bientôt la mener à Hong Kong, où se trouve son ami Ned pour ses études...
@@ -547,16 +561,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, dix-huit ans, détective amateur blonde, orpheline de mère, fille de James Roy.
-James Roy, avoué[2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, dix-huit ans, détective amateur blonde, orpheline de mère, fille de James Roy.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor, blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
 Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Mlle Cécile Roy, tante d'Alice, sœur de James Roy, professeur à New York.
-Personnages spécifiques à ce roman
-Li Tsao (Mr. Soong en VO), vieux monsieur chinois.
+Mlle Cécile Roy, tante d'Alice, sœur de James Roy, professeur à New York.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_le_Dragon_de_feu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_le_Dragon_de_feu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Li Tsao (Mr. Soong en VO), vieux monsieur chinois.
 Chami (Chi Che en VO), dix-huit ans, petite-fille chinoise de Li Tsao, étudiante à New York.
 Yang Kaï-Hui, jeune Chinoise, étudiante et amie de Chami, qui aide Alice dans son enquête.
 M. Stromberg, libraire, malfaiteur.
@@ -565,38 +618,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alice_et_le_Dragon_de_feu</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_le_Dragon_de_feu</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : Toutes les éditions ont paru aux éditions Hachette.
 1964  : Alice et le Dragon de feu — coll. « Idéal-Bibliothèque » no 264, cartonné (français, version originale). Illustré par Albert Chazelle. Texte français d'Anne Joba. 20 chapitres. 187 p. 
 1970 : Alice et le Dragon de feu — coll. « Bibliothèque verte », cartonné (français, version originale). Nouvelle couverture d'Albert Chazelle. Texte français d'Anne Joba. 20 chapitres. 187 p. 
 1976 : Alice et le Dragon de feu — coll. « La Galaxie », cartonné (français, version originale). Illustré par Jean-Louis Mercier.
-1983 : Alice et le Dragon de feu — coll. « Bibliothèque verte » (série hachurée)[3], cartonné (français, version originale). Couverture de Joseph Sheldon, illustrations intérieures d'Albert Chazelle. Texte français d'Anne Joba. 20 chapitres. 187 p. 
-1984 : Alice et le Dragon de feu — coll. « Bibliothèque verte » (série hachurée)[4], cartonné (français, originale). Couverture de Jean Sidobre, illustrations intérieures d'Albert Chazelle. Texte français d'Anne Joba. 20 chapitres. 187 p. </t>
+1983 : Alice et le Dragon de feu — coll. « Bibliothèque verte » (série hachurée), cartonné (français, version originale). Couverture de Joseph Sheldon, illustrations intérieures d'Albert Chazelle. Texte français d'Anne Joba. 20 chapitres. 187 p. 
+1984 : Alice et le Dragon de feu — coll. « Bibliothèque verte » (série hachurée), cartonné (français, originale). Couverture de Jean Sidobre, illustrations intérieures d'Albert Chazelle. Texte français d'Anne Joba. 20 chapitres. 187 p. </t>
         </is>
       </c>
     </row>
